--- a/Growth/RDDT_MODEL.xlsx
+++ b/Growth/RDDT_MODEL.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Growth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26021D4-86AF-4CE7-837D-BD48BC5899C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE16C310-8B43-4C16-897B-F89908F80934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="19530" yWindow="0" windowWidth="18975" windowHeight="20985" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Debt" sheetId="10" r:id="rId2"/>
-    <sheet name="Model" sheetId="2" r:id="rId3"/>
-    <sheet name="Valuation Metrics" sheetId="9" r:id="rId4"/>
-    <sheet name="Peer Comparisons" sheetId="8" r:id="rId5"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Debt" sheetId="10" r:id="rId3"/>
+    <sheet name="Peer Comparisons" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="82">
   <si>
     <t>Price</t>
   </si>
@@ -277,6 +276,15 @@
   </si>
   <si>
     <t>Adjusted EBITDA 185-195</t>
+  </si>
+  <si>
+    <t>huge beat</t>
+  </si>
+  <si>
+    <t>655 to 665</t>
+  </si>
+  <si>
+    <t>275 to 285</t>
   </si>
 </sst>
 </file>
@@ -288,13 +296,19 @@
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -351,7 +365,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,65 +482,67 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -857,118 +879,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB11C10-986F-41A4-B3DD-2A72A923BC11}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="41" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="41">
         <v>216</v>
       </c>
-      <c r="C4" s="2">
-        <v>45874</v>
+      <c r="C4" s="42">
+        <v>45987</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>180.3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="41">
+        <v>190</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="41">
         <f xml:space="preserve"> B4 * B5</f>
-        <v>38944.800000000003</v>
+        <v>41040</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1">
-        <v>2060</v>
+      <c r="B7" s="41">
+        <v>2230</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="41">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1">
-        <v>11.01</v>
+      <c r="E8" s="41">
+        <v>11.75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="41">
         <f>B6 - B7 + B8</f>
-        <v>36909.800000000003</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>38835</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1">
-        <v>12.76</v>
+      <c r="E9" s="41">
+        <v>13.78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="1">
-        <v>96.17</v>
+      <c r="B11" s="41">
+        <v>100.68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="1">
-        <v>126.58</v>
+      <c r="B12" s="41">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="41">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="41">
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="41">
+        <v>20.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="41">
+        <v>511.9</v>
       </c>
     </row>
   </sheetData>
@@ -977,71 +1031,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4057A448-0FF3-4052-BD1B-DEEE66EAE90C}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="60" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="1">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1330</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1054,70 +1049,70 @@
     <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="1">
         <f t="shared" ref="D3:L3" si="0">SUM(D4:D5)</f>
         <v>163.69999999999999</v>
@@ -1158,8 +1153,11 @@
         <f>SUM(M4:M5)</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="1">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
@@ -1193,8 +1191,11 @@
       <c r="M4" s="1">
         <v>409</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1228,338 +1229,375 @@
       <c r="M5" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-    </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="N5" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="34">
-        <f t="shared" ref="D7:M7" si="1">SUM(D4:D5)</f>
+      <c r="C7" s="2"/>
+      <c r="D7" s="33">
+        <f t="shared" ref="D7:Q7" si="1">SUM(D4:D5)</f>
         <v>163.69999999999999</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <f t="shared" si="1"/>
         <v>183.10000000000002</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <f t="shared" si="1"/>
         <v>207.5</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <f t="shared" si="1"/>
         <v>249.8</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="33">
         <f t="shared" si="1"/>
         <v>243</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="33">
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="33">
         <f t="shared" si="1"/>
         <v>348.4</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <f t="shared" si="1"/>
         <v>427.7</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="33">
         <f t="shared" si="1"/>
         <v>392.4</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="33">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="N7" s="34">
-        <f>SUM(N4:N5)</f>
+      <c r="N7" s="33">
+        <f t="shared" si="1"/>
+        <v>585</v>
+      </c>
+      <c r="O7" s="33">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28" t="s">
+      <c r="P7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27">
         <v>27</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <v>29</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>26</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>29</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>28</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="27">
         <v>30</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="27">
         <v>35</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="27">
         <v>32</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="27">
         <v>37</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <v>45.9</v>
       </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="N8" s="15">
+        <v>52.5</v>
+      </c>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
-        <f>D7 - SUM(D8:D8)</f>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <f t="shared" ref="D9:N9" si="2">D7 - SUM(D8:D8)</f>
         <v>136.69999999999999</v>
       </c>
-      <c r="E9" s="4">
-        <f>E7 - SUM(E8:E8)</f>
+      <c r="E9" s="3">
+        <f t="shared" si="2"/>
         <v>154.10000000000002</v>
       </c>
-      <c r="F9" s="4">
-        <f>F7 - SUM(F8:F8)</f>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
         <v>181.5</v>
       </c>
-      <c r="G9" s="4">
-        <f>G7 - SUM(G8:G8)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
         <v>220.8</v>
       </c>
-      <c r="H9" s="4">
-        <f>H7 - SUM(H8:H8)</f>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="I9" s="4">
-        <f>I7 - SUM(I8:I8)</f>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="J9" s="4">
-        <f>J7 - SUM(J8:J8)</f>
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
         <v>313.39999999999998</v>
       </c>
-      <c r="K9" s="4">
-        <f>K7 - SUM(K8:K8)</f>
+      <c r="K9" s="3">
+        <f t="shared" si="2"/>
         <v>395.7</v>
       </c>
-      <c r="L9" s="4">
-        <f>L7 - SUM(L8:L8)</f>
+      <c r="L9" s="3">
+        <f t="shared" si="2"/>
         <v>355.4</v>
       </c>
-      <c r="M9" s="4">
-        <f>M7 - SUM(M8:M8)</f>
+      <c r="M9" s="3">
+        <f t="shared" si="2"/>
         <v>454.1</v>
       </c>
-      <c r="N9" s="4">
-        <f>N7 - SUM(N8:N8)</f>
+      <c r="N9" s="3">
+        <f t="shared" si="2"/>
+        <v>532.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15">
+        <v>109</v>
+      </c>
+      <c r="E10" s="15">
+        <v>110</v>
+      </c>
+      <c r="F10" s="15">
+        <v>108</v>
+      </c>
+      <c r="G10" s="15">
+        <v>112</v>
+      </c>
+      <c r="H10" s="15">
+        <v>437</v>
+      </c>
+      <c r="I10" s="15">
+        <v>143</v>
+      </c>
+      <c r="J10" s="15">
+        <v>167</v>
+      </c>
+      <c r="K10" s="15">
+        <v>187</v>
+      </c>
+      <c r="L10" s="15">
+        <v>191</v>
+      </c>
+      <c r="M10" s="15">
+        <v>197</v>
+      </c>
+      <c r="N10" s="1">
+        <v>196.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15">
+        <v>58</v>
+      </c>
+      <c r="E11" s="15">
+        <v>59</v>
+      </c>
+      <c r="F11" s="15">
+        <v>55</v>
+      </c>
+      <c r="G11" s="15">
+        <v>58</v>
+      </c>
+      <c r="H11" s="15">
+        <v>124</v>
+      </c>
+      <c r="I11" s="15">
+        <v>71</v>
+      </c>
+      <c r="J11" s="15">
+        <v>75</v>
+      </c>
+      <c r="K11" s="15">
+        <v>81</v>
+      </c>
+      <c r="L11" s="15">
+        <v>91</v>
+      </c>
+      <c r="M11" s="15">
+        <v>121</v>
+      </c>
+      <c r="N11" s="1">
+        <v>128.69999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15">
+        <v>51</v>
+      </c>
+      <c r="E12" s="15">
+        <v>38</v>
+      </c>
+      <c r="F12" s="15">
+        <v>37</v>
+      </c>
+      <c r="G12" s="15">
+        <v>48</v>
+      </c>
+      <c r="H12" s="15">
+        <v>243</v>
+      </c>
+      <c r="I12" s="15">
+        <v>68</v>
+      </c>
+      <c r="J12" s="15">
+        <v>66</v>
+      </c>
+      <c r="K12" s="15">
+        <v>74</v>
+      </c>
+      <c r="L12" s="15">
+        <v>69</v>
+      </c>
+      <c r="M12" s="15">
+        <v>69</v>
+      </c>
+      <c r="N12" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13:M13" si="3">D9-SUM(D10:D12)</f>
+        <v>-81.300000000000011</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="3"/>
+        <v>-52.899999999999977</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="3"/>
+        <v>-18.5</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="3"/>
+        <v>-589</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="3"/>
+        <v>-31</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="3"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="3"/>
+        <v>53.699999999999989</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="3"/>
+        <v>4.3999999999999773</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="3"/>
+        <v>67.100000000000023</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" ref="N13" si="4">N9-SUM(N10:N12)</f>
+        <v>138.39999999999998</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" ref="O13" si="5">O9-SUM(O10:O12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16">
-        <v>109</v>
-      </c>
-      <c r="E10" s="16">
-        <v>110</v>
-      </c>
-      <c r="F10" s="16">
-        <v>108</v>
-      </c>
-      <c r="G10" s="16">
-        <v>112</v>
-      </c>
-      <c r="H10" s="16">
-        <v>437</v>
-      </c>
-      <c r="I10" s="16">
-        <v>143</v>
-      </c>
-      <c r="J10" s="16">
-        <v>167</v>
-      </c>
-      <c r="K10" s="16">
-        <v>187</v>
-      </c>
-      <c r="L10" s="16">
-        <v>191</v>
-      </c>
-      <c r="M10" s="16">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16">
-        <v>58</v>
-      </c>
-      <c r="E11" s="16">
-        <v>59</v>
-      </c>
-      <c r="F11" s="16">
-        <v>55</v>
-      </c>
-      <c r="G11" s="16">
-        <v>58</v>
-      </c>
-      <c r="H11" s="16">
-        <v>124</v>
-      </c>
-      <c r="I11" s="16">
-        <v>71</v>
-      </c>
-      <c r="J11" s="16">
-        <v>75</v>
-      </c>
-      <c r="K11" s="16">
-        <v>81</v>
-      </c>
-      <c r="L11" s="16">
-        <v>91</v>
-      </c>
-      <c r="M11" s="16">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16">
-        <v>51</v>
-      </c>
-      <c r="E12" s="16">
-        <v>38</v>
-      </c>
-      <c r="F12" s="16">
-        <v>37</v>
-      </c>
-      <c r="G12" s="16">
-        <v>48</v>
-      </c>
-      <c r="H12" s="16">
-        <v>243</v>
-      </c>
-      <c r="I12" s="16">
-        <v>68</v>
-      </c>
-      <c r="J12" s="16">
-        <v>66</v>
-      </c>
-      <c r="K12" s="16">
-        <v>74</v>
-      </c>
-      <c r="L12" s="16">
-        <v>69</v>
-      </c>
-      <c r="M12" s="16">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4">
-        <f>D9-SUM(D10:D12)</f>
-        <v>-81.300000000000011</v>
-      </c>
-      <c r="E13" s="4">
-        <f>E9-SUM(E10:E12)</f>
-        <v>-52.899999999999977</v>
-      </c>
-      <c r="F13" s="4">
-        <f>F9-SUM(F10:F12)</f>
-        <v>-18.5</v>
-      </c>
-      <c r="G13" s="4">
-        <f>G9-SUM(G10:G12)</f>
-        <v>2.8000000000000114</v>
-      </c>
-      <c r="H13" s="4">
-        <f>H9-SUM(H10:H12)</f>
-        <v>-589</v>
-      </c>
-      <c r="I13" s="4">
-        <f>I9-SUM(I10:I12)</f>
-        <v>-31</v>
-      </c>
-      <c r="J13" s="4">
-        <f>J9-SUM(J10:J12)</f>
-        <v>5.3999999999999773</v>
-      </c>
-      <c r="K13" s="4">
-        <f>K9-SUM(K10:K12)</f>
-        <v>53.699999999999989</v>
-      </c>
-      <c r="L13" s="4">
-        <f>L9-SUM(L10:L12)</f>
-        <v>4.3999999999999773</v>
-      </c>
-      <c r="M13" s="4">
-        <f>M9-SUM(M10:M12)</f>
-        <v>67.100000000000023</v>
-      </c>
-      <c r="N13" s="4">
-        <f>N9-SUM(N10:N12)</f>
+      <c r="P13" s="3">
+        <f t="shared" ref="P13" si="6">P9-SUM(P10:P12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <f t="shared" ref="Q13" si="7">Q9-SUM(Q10:Q12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>-60</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>-40</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <v>-7</v>
       </c>
       <c r="G14" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="28">
         <v>-574</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="28">
         <v>-10.3</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="28">
         <v>29.8</v>
       </c>
       <c r="K14" s="1">
@@ -1571,30 +1609,33 @@
       <c r="M14" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N14" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>1</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>1</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <v>0.4</v>
       </c>
       <c r="G15" s="1">
         <v>0.9</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="28">
         <v>14</v>
       </c>
       <c r="I15" s="1">
         <v>-0.2</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="28">
         <v>0</v>
       </c>
       <c r="K15" s="1">
@@ -1606,115 +1647,137 @@
       <c r="M15" s="1">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f>D14-D15</f>
         <v>-61</v>
       </c>
-      <c r="E16" s="5">
-        <f t="shared" ref="E16:N16" si="2">E14-E15</f>
+      <c r="E16" s="4">
+        <f t="shared" ref="E16:R16" si="8">E14-E15</f>
         <v>-41</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="2"/>
+      <c r="F16" s="4">
+        <f t="shared" si="8"/>
         <v>-7.4</v>
       </c>
-      <c r="G16" s="5">
-        <f t="shared" si="2"/>
+      <c r="G16" s="4">
+        <f t="shared" si="8"/>
         <v>18.5</v>
       </c>
-      <c r="H16" s="5">
-        <f t="shared" si="2"/>
+      <c r="H16" s="4">
+        <f t="shared" si="8"/>
         <v>-588</v>
       </c>
-      <c r="I16" s="5">
-        <f t="shared" si="2"/>
+      <c r="I16" s="4">
+        <f t="shared" si="8"/>
         <v>-10.100000000000001</v>
       </c>
-      <c r="J16" s="5">
-        <f t="shared" si="2"/>
+      <c r="J16" s="4">
+        <f t="shared" si="8"/>
         <v>29.8</v>
       </c>
-      <c r="K16" s="5">
-        <f t="shared" si="2"/>
+      <c r="K16" s="4">
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="L16" s="5">
-        <f t="shared" si="2"/>
+      <c r="L16" s="4">
+        <f t="shared" si="8"/>
         <v>26.099999999999998</v>
       </c>
-      <c r="M16" s="5">
-        <f t="shared" si="2"/>
+      <c r="M16" s="4">
+        <f t="shared" si="8"/>
         <v>89.4</v>
       </c>
-      <c r="N16" s="5">
-        <f t="shared" si="2"/>
+      <c r="N16" s="4">
+        <f t="shared" si="8"/>
+        <v>159</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29">
         <v>-1.05</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <v>-0.7</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <v>-0.13</v>
       </c>
       <c r="G17" s="1">
         <v>0.3</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="29">
         <v>-8.19</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="29">
         <v>-0.06</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <v>0.18</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="29">
         <v>0.4</v>
       </c>
       <c r="L17" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="29">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N17" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="1">
         <v>-1.05</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <v>-0.7</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="28">
         <v>-0.13</v>
       </c>
       <c r="G18" s="1">
         <v>0.3</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="28">
         <v>-8.19</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="28">
         <v>-0.06</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="28">
         <v>0.16</v>
       </c>
       <c r="K18" s="1">
@@ -1726,214 +1789,254 @@
       <c r="M18" s="1">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N18" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="6">
-        <f>(H7/D7) - 1</f>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" ref="H20:M20" si="9">(H7/D7) - 1</f>
         <v>0.48442272449602952</v>
       </c>
-      <c r="I20" s="6">
-        <f>(I7/E7) - 1</f>
+      <c r="I20" s="5">
+        <f t="shared" si="9"/>
         <v>0.53468050245767329</v>
       </c>
-      <c r="J20" s="6">
-        <f>(J7/F7) - 1</f>
+      <c r="J20" s="5">
+        <f t="shared" si="9"/>
         <v>0.67903614457831307</v>
       </c>
-      <c r="K20" s="6">
-        <f>(K7/G7) - 1</f>
+      <c r="K20" s="5">
+        <f t="shared" si="9"/>
         <v>0.71216973578863074</v>
       </c>
-      <c r="L20" s="6">
-        <f>(L7/H7) - 1</f>
+      <c r="L20" s="5">
+        <f t="shared" si="9"/>
         <v>0.6148148148148147</v>
       </c>
-      <c r="M20" s="6">
-        <f>(M7/I7) - 1</f>
+      <c r="M20" s="5">
+        <f t="shared" si="9"/>
         <v>0.77935943060498225</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N20" s="5">
+        <f t="shared" ref="N20" si="10">(N7/J7) - 1</f>
+        <v>0.67910447761194037</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" ref="O20" si="11">(O7/K7) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" ref="P20" si="12">(P7/L7) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" ref="Q20" si="13">(Q7/M7) - 1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="6">
-        <f xml:space="preserve"> (E7/D7) - 1</f>
+      <c r="D21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" ref="E21:M21" si="14" xml:space="preserve"> (E7/D7) - 1</f>
         <v>0.11850946854001254</v>
       </c>
-      <c r="F21" s="6">
-        <f xml:space="preserve"> (F7/E7) - 1</f>
+      <c r="F21" s="5">
+        <f t="shared" si="14"/>
         <v>0.13326051338066613</v>
       </c>
-      <c r="G21" s="6">
-        <f xml:space="preserve"> (G7/F7) - 1</f>
+      <c r="G21" s="5">
+        <f t="shared" si="14"/>
         <v>0.20385542168674697</v>
       </c>
-      <c r="H21" s="6">
-        <f xml:space="preserve"> (H7/G7) - 1</f>
+      <c r="H21" s="5">
+        <f t="shared" si="14"/>
         <v>-2.7221777421937543E-2</v>
       </c>
-      <c r="I21" s="6">
-        <f xml:space="preserve"> (I7/H7) - 1</f>
+      <c r="I21" s="5">
+        <f t="shared" si="14"/>
         <v>0.15637860082304522</v>
       </c>
-      <c r="J21" s="6">
-        <f xml:space="preserve"> (J7/I7) - 1</f>
+      <c r="J21" s="5">
+        <f t="shared" si="14"/>
         <v>0.23985765124555147</v>
       </c>
-      <c r="K21" s="6">
-        <f xml:space="preserve"> (K7/J7) - 1</f>
+      <c r="K21" s="5">
+        <f t="shared" si="14"/>
         <v>0.22761194029850751</v>
       </c>
-      <c r="L21" s="6">
-        <f xml:space="preserve"> (L7/K7) - 1</f>
+      <c r="L21" s="5">
+        <f t="shared" si="14"/>
         <v>-8.2534486789806016E-2</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <f xml:space="preserve"> (M7/L7) - 1</f>
         <v>0.27420998980632016</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="38" t="s">
+      <c r="N21" s="5">
+        <f t="shared" ref="N21:Q21" si="15" xml:space="preserve"> (N7/M7) - 1</f>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="P21" s="5" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" s="5" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="36">
         <v>0.83599999999999997</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="36">
         <v>0.84199999999999997</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="36">
         <v>0.873</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="36">
         <v>0.88400000000000001</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="36">
         <v>0.88600000000000001</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="36">
         <v>0.89500000000000002</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="36">
         <v>0.90100000000000002</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="36">
         <v>0.92600000000000005</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="35">
         <v>0.90500000000000003</v>
       </c>
-      <c r="M23" s="38">
+      <c r="M23" s="35">
         <v>0.90800000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="38" t="s">
+      <c r="N23" s="35">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="39">
+      <c r="D24" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="36">
         <v>-3.5999999999999997E-2</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="36">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="36">
         <v>-2.367</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="36">
         <v>-3.5999999999999997E-2</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="36">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="K24" s="39">
+      <c r="K24" s="36">
         <v>0.16600000000000001</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="35">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="35">
         <v>0.17899999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="33" t="s">
+      <c r="N24" s="35">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="32">
         <v>-50.2</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="32">
         <v>-35.4</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="32">
         <v>-6.9</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="32">
         <v>23.2</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="32">
         <v>10</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="32">
         <v>40</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="32">
         <v>94.1</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="32">
         <v>154.30000000000001</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="32">
         <v>155.30000000000001</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="32">
         <v>167</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="N25" s="32">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -1941,31 +2044,31 @@
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ref="D27:L27" si="3">SUM(D28:D29)</f>
+        <f t="shared" ref="D27:L27" si="16">SUM(D28:D29)</f>
         <v>60.3</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>60.4</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>66</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>73.099999999999994</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>82.7</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>91.2</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>97.2</v>
       </c>
       <c r="K27" s="1">
@@ -1973,15 +2076,19 @@
         <v>101.7</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>108.1</v>
       </c>
       <c r="M27" s="1">
         <f>SUM(M28:M29)</f>
         <v>110.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="N27" s="1">
+        <f>SUM(N28:N29)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
@@ -2015,8 +2122,11 @@
       <c r="M28" s="1">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="N28" s="1">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
@@ -2050,135 +2160,186 @@
       <c r="M29" s="1">
         <v>60.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" s="42" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
+      <c r="N29" s="1">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="38" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="42">
-        <f t="shared" ref="H30:L32" si="4">(H27/D27) - 1</f>
+      <c r="D30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="38">
+        <f t="shared" ref="H30:L32" si="17">(H27/D27) - 1</f>
         <v>0.37147595356550589</v>
       </c>
-      <c r="I30" s="42">
-        <f t="shared" si="4"/>
+      <c r="I30" s="38">
+        <f t="shared" si="17"/>
         <v>0.50993377483443725</v>
       </c>
-      <c r="J30" s="42">
-        <f t="shared" si="4"/>
+      <c r="J30" s="38">
+        <f t="shared" si="17"/>
         <v>0.47272727272727266</v>
       </c>
-      <c r="K30" s="42">
-        <f t="shared" si="4"/>
+      <c r="K30" s="38">
+        <f t="shared" si="17"/>
         <v>0.39124487004103981</v>
       </c>
-      <c r="L30" s="42">
-        <f t="shared" si="4"/>
+      <c r="L30" s="38">
+        <f t="shared" si="17"/>
         <v>0.30713422007255131</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="38">
         <f>(M27/I27) - 1</f>
         <v>0.21052631578947367</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" s="42" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="42" t="s">
+      <c r="N30" s="38">
+        <f t="shared" ref="N30:Q32" si="18">(N27/J27) - 1</f>
+        <v>0.1934156378600822</v>
+      </c>
+      <c r="O30" s="38">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P30" s="38">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="38">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="38" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="42">
-        <f t="shared" si="4"/>
+      <c r="D31" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="38">
+        <f t="shared" si="17"/>
         <v>0.45104895104895104</v>
       </c>
-      <c r="I31" s="42">
-        <f t="shared" si="4"/>
+      <c r="I31" s="38">
+        <f t="shared" si="17"/>
         <v>0.58536585365853666</v>
       </c>
-      <c r="J31" s="42">
-        <f t="shared" si="4"/>
+      <c r="J31" s="38">
+        <f t="shared" si="17"/>
         <v>0.50625000000000009</v>
       </c>
-      <c r="K31" s="42">
-        <f t="shared" si="4"/>
+      <c r="K31" s="38">
+        <f t="shared" si="17"/>
         <v>0.31868131868131866</v>
       </c>
-      <c r="L31" s="42">
-        <f t="shared" si="4"/>
+      <c r="L31" s="38">
+        <f t="shared" si="17"/>
         <v>0.20722891566265056</v>
       </c>
-      <c r="M31" s="42">
-        <f t="shared" ref="M31:M32" si="5">(M28/I28) - 1</f>
+      <c r="M31" s="38">
+        <f t="shared" ref="M31:M32" si="19">(M28/I28) - 1</f>
         <v>0.10549450549450534</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" s="42" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="42" t="s">
+      <c r="N31" s="38">
+        <f t="shared" si="18"/>
+        <v>7.0539419087136901E-2</v>
+      </c>
+      <c r="O31" s="38">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P31" s="38">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="38">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="38" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="42">
-        <f t="shared" si="4"/>
+      <c r="D32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="38">
+        <f t="shared" si="17"/>
         <v>0.29968454258675092</v>
       </c>
-      <c r="I32" s="42">
-        <f t="shared" si="4"/>
+      <c r="I32" s="38">
+        <f t="shared" si="17"/>
         <v>0.44164037854889604</v>
       </c>
-      <c r="J32" s="42">
-        <f t="shared" si="4"/>
+      <c r="J32" s="38">
+        <f t="shared" si="17"/>
         <v>0.44117647058823528</v>
       </c>
-      <c r="K32" s="42">
-        <f t="shared" si="4"/>
+      <c r="K32" s="38">
+        <f t="shared" si="17"/>
         <v>0.46321525885558579</v>
       </c>
-      <c r="L32" s="42">
-        <f t="shared" si="4"/>
+      <c r="L32" s="38">
+        <f t="shared" si="17"/>
         <v>0.40776699029126195</v>
       </c>
-      <c r="M32" s="42">
-        <f t="shared" si="5"/>
+      <c r="M32" s="38">
+        <f t="shared" si="19"/>
         <v>0.3150984682713347</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="N32" s="38">
+        <f t="shared" si="18"/>
+        <v>0.3142857142857145</v>
+      </c>
+      <c r="O32" s="38">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="P32" s="38">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="38">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -2186,47 +2347,51 @@
         <v>58</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:L34" si="6">SUM(D35:D36)</f>
+        <f t="shared" ref="D34:L34" si="20">SUM(D35:D36)</f>
         <v>31.1</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>32.1</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>34.700000000000003</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>36.4</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>39.6</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>42</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44.2</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>46.099999999999994</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>48.8</v>
       </c>
       <c r="M34" s="1">
         <f>SUM(M35:M36)</f>
         <v>49.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="N34" s="1">
+        <f>SUM(N35:N36)</f>
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>59</v>
       </c>
@@ -2260,8 +2425,11 @@
       <c r="M35" s="1">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="N35" s="1">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,631 +2463,774 @@
       <c r="M36" s="1">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" s="42" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
+      <c r="N36" s="1">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="38" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="42">
-        <f t="shared" ref="H37:L39" si="7">(H34/D34)-1</f>
+      <c r="D37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="38">
+        <f t="shared" ref="H37:L39" si="21">(H34/D34)-1</f>
         <v>0.27331189710610926</v>
       </c>
-      <c r="I37" s="42">
-        <f t="shared" si="7"/>
+      <c r="I37" s="38">
+        <f t="shared" si="21"/>
         <v>0.30841121495327095</v>
       </c>
-      <c r="J37" s="42">
-        <f t="shared" si="7"/>
+      <c r="J37" s="38">
+        <f t="shared" si="21"/>
         <v>0.27377521613832845</v>
       </c>
-      <c r="K37" s="42">
-        <f t="shared" si="7"/>
+      <c r="K37" s="38">
+        <f t="shared" si="21"/>
         <v>0.26648351648351642</v>
       </c>
-      <c r="L37" s="42">
-        <f t="shared" si="7"/>
+      <c r="L37" s="38">
+        <f t="shared" si="21"/>
         <v>0.23232323232323226</v>
       </c>
-      <c r="M37" s="42">
+      <c r="M37" s="38">
         <f>(M34/I34)-1</f>
         <v>0.17380952380952364</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" s="42" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="42" t="s">
+      <c r="N37" s="38">
+        <f t="shared" ref="N37:P39" si="22">(N34/J34)-1</f>
+        <v>0.13574660633484159</v>
+      </c>
+      <c r="O37" s="38">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="P37" s="38">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="38" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="42">
-        <f t="shared" si="7"/>
+      <c r="D38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="38">
+        <f t="shared" si="21"/>
         <v>0.26973684210526327</v>
       </c>
-      <c r="I38" s="42">
-        <f t="shared" ref="I38:I39" si="8">(I35/E35)-1</f>
+      <c r="I38" s="38">
+        <f t="shared" ref="I38:I39" si="23">(I35/E35)-1</f>
         <v>0.31612903225806432</v>
       </c>
-      <c r="J38" s="42">
-        <f t="shared" ref="J38:J39" si="9">(J35/F35)-1</f>
+      <c r="J38" s="38">
+        <f t="shared" ref="J38:J39" si="24">(J35/F35)-1</f>
         <v>0.28742514970059885</v>
       </c>
-      <c r="K38" s="42">
-        <f t="shared" ref="K38:K39" si="10">(K35/G35)-1</f>
+      <c r="K38" s="38">
+        <f t="shared" ref="K38:K39" si="25">(K35/G35)-1</f>
         <v>0.23728813559322037</v>
       </c>
-      <c r="L38" s="42">
-        <f t="shared" ref="L38:L39" si="11">(L35/H35)-1</f>
+      <c r="L38" s="38">
+        <f t="shared" ref="L38:L39" si="26">(L35/H35)-1</f>
         <v>0.19170984455958551</v>
       </c>
-      <c r="M38" s="42">
-        <f t="shared" ref="M38:M60" si="12">(M35/I35)-1</f>
+      <c r="M38" s="38">
+        <f t="shared" ref="M38:N60" si="27">(M35/I35)-1</f>
         <v>0.12254901960784315</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" s="42" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="42" t="s">
+      <c r="N38" s="38">
+        <f t="shared" si="22"/>
+        <v>7.441860465116279E-2</v>
+      </c>
+      <c r="O38" s="38">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="P38" s="38">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="Q38" s="38">
+        <f t="shared" ref="Q38:Q39" si="28">(Q35/M35)-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="38" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" s="42">
-        <f t="shared" si="7"/>
+      <c r="D39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="38">
+        <f t="shared" si="21"/>
         <v>0.27672955974842761</v>
       </c>
-      <c r="I39" s="42">
-        <f t="shared" si="8"/>
+      <c r="I39" s="38">
+        <f t="shared" si="23"/>
         <v>0.3012048192771084</v>
       </c>
-      <c r="J39" s="42">
-        <f t="shared" si="9"/>
+      <c r="J39" s="38">
+        <f t="shared" si="24"/>
         <v>0.26111111111111107</v>
       </c>
-      <c r="K39" s="42">
-        <f t="shared" si="10"/>
+      <c r="K39" s="38">
+        <f t="shared" si="25"/>
         <v>0.29411764705882359</v>
       </c>
-      <c r="L39" s="42">
-        <f t="shared" si="11"/>
+      <c r="L39" s="38">
+        <f t="shared" si="26"/>
         <v>0.27093596059113301</v>
       </c>
-      <c r="M39" s="42">
-        <f t="shared" si="12"/>
+      <c r="M39" s="38">
+        <f t="shared" si="27"/>
         <v>0.2222222222222221</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="M40" s="6"/>
-    </row>
-    <row r="41" spans="1:13" s="40" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
+      <c r="N39" s="38">
+        <f t="shared" si="22"/>
+        <v>0.19383259911894291</v>
+      </c>
+      <c r="O39" s="38">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="P39" s="38">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="38">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="9">
-        <f t="shared" ref="D41:L41" si="13">SUM(D42:D43)</f>
+      <c r="D41" s="8">
+        <f t="shared" ref="D41:L41" si="29">SUM(D42:D43)</f>
         <v>29.200000000000003</v>
       </c>
-      <c r="E41" s="9">
-        <f t="shared" si="13"/>
+      <c r="E41" s="8">
+        <f t="shared" si="29"/>
         <v>28.299999999999997</v>
       </c>
-      <c r="F41" s="9">
-        <f t="shared" si="13"/>
+      <c r="F41" s="8">
+        <f t="shared" si="29"/>
         <v>31.3</v>
       </c>
-      <c r="G41" s="9">
-        <f t="shared" si="13"/>
+      <c r="G41" s="8">
+        <f t="shared" si="29"/>
         <v>36.700000000000003</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="8">
         <f>SUM(H42:H43)</f>
         <v>43.099999999999994</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="8">
         <f>SUM(I42:I43)</f>
         <v>49.2</v>
       </c>
-      <c r="J41" s="9">
-        <f t="shared" si="13"/>
+      <c r="J41" s="8">
+        <f t="shared" si="29"/>
         <v>53</v>
       </c>
-      <c r="K41" s="9">
-        <f t="shared" si="13"/>
+      <c r="K41" s="8">
+        <f t="shared" si="29"/>
         <v>55.6</v>
       </c>
-      <c r="L41" s="9">
-        <f t="shared" si="13"/>
+      <c r="L41" s="8">
+        <f t="shared" si="29"/>
         <v>59.300000000000004</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="8">
         <f>SUM(M42:M43)</f>
         <v>61.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" s="40" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="40" t="s">
+      <c r="N41" s="8">
+        <f>SUM(N42:N43)</f>
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="1">
         <v>13.4</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="1">
         <v>13.2</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F42" s="1">
         <v>15.3</v>
       </c>
-      <c r="G42" s="40">
+      <c r="G42" s="1">
         <v>18.7</v>
       </c>
-      <c r="H42" s="40">
+      <c r="H42" s="1">
         <v>22.2</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I42" s="1">
         <v>25.1</v>
       </c>
-      <c r="J42" s="40">
+      <c r="J42" s="1">
         <v>26.7</v>
       </c>
-      <c r="K42" s="40">
+      <c r="K42" s="1">
         <v>26.1</v>
       </c>
-      <c r="L42" s="40">
+      <c r="L42" s="1">
         <v>27.1</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="8">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" s="40" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="40" t="s">
+      <c r="N42" s="1">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="1">
         <v>15.8</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="1">
         <v>15.1</v>
       </c>
-      <c r="F43" s="40">
+      <c r="F43" s="1">
         <v>16</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43" s="1">
         <v>18</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43" s="1">
         <v>20.9</v>
       </c>
-      <c r="I43" s="40">
+      <c r="I43" s="1">
         <v>24.1</v>
       </c>
-      <c r="J43" s="40">
+      <c r="J43" s="1">
         <v>26.3</v>
       </c>
-      <c r="K43" s="40">
+      <c r="K43" s="1">
         <v>29.5</v>
       </c>
-      <c r="L43" s="40">
+      <c r="L43" s="1">
         <v>32.200000000000003</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="8">
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" s="41" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="41" t="s">
+      <c r="N43" s="1">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="37" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" s="42">
-        <f t="shared" ref="H44" si="14">(H41/D41)-1</f>
+      <c r="D44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="38">
+        <f t="shared" ref="H44" si="30">(H41/D41)-1</f>
         <v>0.47602739726027354</v>
       </c>
-      <c r="I44" s="42">
-        <f t="shared" ref="I44" si="15">(I41/E41)-1</f>
+      <c r="I44" s="38">
+        <f t="shared" ref="I44" si="31">(I41/E41)-1</f>
         <v>0.73851590106007103</v>
       </c>
-      <c r="J44" s="42">
-        <f t="shared" ref="J44:J46" si="16">(J41/F41)-1</f>
+      <c r="J44" s="38">
+        <f t="shared" ref="J44:J46" si="32">(J41/F41)-1</f>
         <v>0.69329073482428116</v>
       </c>
-      <c r="K44" s="42">
-        <f t="shared" ref="K44:K46" si="17">(K41/G41)-1</f>
+      <c r="K44" s="38">
+        <f t="shared" ref="K44:K46" si="33">(K41/G41)-1</f>
         <v>0.51498637602179831</v>
       </c>
-      <c r="L44" s="42">
-        <f t="shared" ref="L44" si="18">(L41/H41)-1</f>
+      <c r="L44" s="38">
+        <f t="shared" ref="L44" si="34">(L41/H41)-1</f>
         <v>0.37587006960556879</v>
       </c>
-      <c r="M44" s="42">
+      <c r="M44" s="38">
         <f>(M41/I41)-1</f>
         <v>0.24186991869918706</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" s="41" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="41" t="s">
+      <c r="N44" s="38">
+        <f t="shared" ref="N44:P44" si="35">(N41/J41)-1</f>
+        <v>0.2415094339622641</v>
+      </c>
+      <c r="O44" s="38">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="P44" s="38">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="37" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" s="42">
+      <c r="D45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="38">
         <f>(H42/D42)-1</f>
         <v>0.65671641791044766</v>
       </c>
-      <c r="I45" s="42">
+      <c r="I45" s="38">
         <f>(I42/E42)-1</f>
         <v>0.90151515151515182</v>
       </c>
-      <c r="J45" s="42">
-        <f t="shared" si="16"/>
+      <c r="J45" s="38">
+        <f t="shared" si="32"/>
         <v>0.74509803921568607</v>
       </c>
-      <c r="K45" s="42">
-        <f t="shared" si="17"/>
+      <c r="K45" s="38">
+        <f t="shared" si="33"/>
         <v>0.39572192513368987</v>
       </c>
-      <c r="L45" s="42">
+      <c r="L45" s="38">
         <f>(L42/H42)-1</f>
         <v>0.22072072072072091</v>
       </c>
-      <c r="M45" s="42">
+      <c r="M45" s="38">
         <f>(M42/I42)-1</f>
         <v>9.1633466135458086E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" s="41" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="41" t="s">
+      <c r="N45" s="38">
+        <f>(N42/J42)-1</f>
+        <v>6.7415730337078594E-2</v>
+      </c>
+      <c r="O45" s="38">
+        <f t="shared" ref="N45:P45" si="36">(O42/K42)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="P45" s="38">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="37" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H46" s="42">
+      <c r="D46" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="38">
         <f>(H43/D43)-1</f>
         <v>0.32278481012658222</v>
       </c>
-      <c r="I46" s="42">
+      <c r="I46" s="38">
         <f>(I43/E43)-1</f>
         <v>0.59602649006622532</v>
       </c>
-      <c r="J46" s="42">
-        <f t="shared" si="16"/>
+      <c r="J46" s="38">
+        <f t="shared" si="32"/>
         <v>0.64375000000000004</v>
       </c>
-      <c r="K46" s="42">
-        <f t="shared" si="17"/>
+      <c r="K46" s="38">
+        <f t="shared" si="33"/>
         <v>0.63888888888888884</v>
       </c>
-      <c r="L46" s="42">
+      <c r="L46" s="38">
         <f>(L43/H43)-1</f>
         <v>0.54066985645933041</v>
       </c>
-      <c r="M46" s="42">
+      <c r="M46" s="38">
         <f>(M43/I43)-1</f>
         <v>0.39834024896265574</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="M47" s="6"/>
-    </row>
-    <row r="48" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="N46" s="38">
+        <f>(N43/J43)-1</f>
+        <v>0.41825095057034201</v>
+      </c>
+      <c r="O46" s="38">
+        <f t="shared" ref="N46:O46" si="37">(O43/K43)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="P46" s="38">
+        <f>(P43/L43)-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="9">
-        <f t="shared" ref="D48:L48" si="19">SUM(D49:D50)</f>
+      <c r="D48" s="8">
+        <f t="shared" ref="D48:L48" si="38">SUM(D49:D50)</f>
         <v>218</v>
       </c>
-      <c r="E48" s="9">
-        <f t="shared" si="19"/>
+      <c r="E48" s="8">
+        <f t="shared" si="38"/>
         <v>218.1</v>
       </c>
-      <c r="F48" s="9">
-        <f t="shared" si="19"/>
+      <c r="F48" s="8">
+        <f t="shared" si="38"/>
         <v>239.10000000000002</v>
       </c>
-      <c r="G48" s="9">
-        <f t="shared" si="19"/>
+      <c r="G48" s="8">
+        <f t="shared" si="38"/>
         <v>267.5</v>
       </c>
-      <c r="H48" s="9">
-        <f t="shared" si="19"/>
+      <c r="H48" s="8">
+        <f t="shared" si="38"/>
         <v>306.20000000000005</v>
       </c>
-      <c r="I48" s="9">
-        <f t="shared" si="19"/>
+      <c r="I48" s="8">
+        <f t="shared" si="38"/>
         <v>342.3</v>
       </c>
-      <c r="J48" s="9">
-        <f t="shared" si="19"/>
+      <c r="J48" s="8">
+        <f t="shared" si="38"/>
         <v>365.4</v>
       </c>
-      <c r="K48" s="9">
-        <f t="shared" si="19"/>
+      <c r="K48" s="8">
+        <f t="shared" si="38"/>
         <v>379.4</v>
       </c>
-      <c r="L48" s="9">
-        <f t="shared" si="19"/>
+      <c r="L48" s="8">
+        <f t="shared" si="38"/>
         <v>401.3</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="8">
         <f>SUM(M49:M50)</f>
         <v>416.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" s="40" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="40" t="s">
+      <c r="N48" s="8">
+        <f>SUM(N49:N50)</f>
+        <v>443.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="1">
         <v>99.2</v>
       </c>
-      <c r="E49" s="40">
+      <c r="E49" s="1">
         <v>99.6</v>
       </c>
-      <c r="F49" s="40">
+      <c r="F49" s="1">
         <v>112.9</v>
       </c>
-      <c r="G49" s="40">
+      <c r="G49" s="1">
         <v>131.1</v>
       </c>
-      <c r="H49" s="40">
+      <c r="H49" s="1">
         <v>151.30000000000001</v>
       </c>
-      <c r="I49" s="40">
+      <c r="I49" s="1">
         <v>167.5</v>
       </c>
-      <c r="J49" s="40">
+      <c r="J49" s="1">
         <v>178</v>
       </c>
-      <c r="K49" s="40">
+      <c r="K49" s="1">
         <v>172.2</v>
       </c>
-      <c r="L49" s="40">
+      <c r="L49" s="1">
         <v>178.3</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M49" s="8">
         <v>181</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" s="40" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="40" t="s">
+      <c r="N49" s="1">
+        <v>187.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="40">
+      <c r="D50" s="1">
         <v>118.8</v>
       </c>
-      <c r="E50" s="40">
+      <c r="E50" s="1">
         <v>118.5</v>
       </c>
-      <c r="F50" s="40">
+      <c r="F50" s="1">
         <v>126.2</v>
       </c>
-      <c r="G50" s="40">
+      <c r="G50" s="1">
         <v>136.4</v>
       </c>
-      <c r="H50" s="40">
+      <c r="H50" s="1">
         <v>154.9</v>
       </c>
-      <c r="I50" s="40">
+      <c r="I50" s="1">
         <v>174.8</v>
       </c>
-      <c r="J50" s="40">
+      <c r="J50" s="1">
         <v>187.4</v>
       </c>
-      <c r="K50" s="40">
+      <c r="K50" s="1">
         <v>207.2</v>
       </c>
-      <c r="L50" s="40">
+      <c r="L50" s="1">
         <v>223</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="8">
         <v>235.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" s="41" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="41" t="s">
+      <c r="N50" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="37" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" s="42">
-        <f t="shared" ref="H51:H53" si="20">(H48/D48)-1</f>
+      <c r="D51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="38">
+        <f t="shared" ref="H51:H53" si="39">(H48/D48)-1</f>
         <v>0.40458715596330297</v>
       </c>
-      <c r="I51" s="42">
-        <f t="shared" ref="I51:I53" si="21">(I48/E48)-1</f>
+      <c r="I51" s="38">
+        <f t="shared" ref="I51:I53" si="40">(I48/E48)-1</f>
         <v>0.56946354883081174</v>
       </c>
-      <c r="J51" s="42">
-        <f t="shared" ref="J51:J53" si="22">(J48/F48)-1</f>
+      <c r="J51" s="38">
+        <f t="shared" ref="J51:J53" si="41">(J48/F48)-1</f>
         <v>0.52823086574654932</v>
       </c>
-      <c r="K51" s="42">
-        <f t="shared" ref="K51:K53" si="23">(K48/G48)-1</f>
+      <c r="K51" s="38">
+        <f t="shared" ref="K51:K53" si="42">(K48/G48)-1</f>
         <v>0.4183177570093457</v>
       </c>
-      <c r="L51" s="42">
-        <f t="shared" ref="L51:L53" si="24">(L48/H48)-1</f>
+      <c r="L51" s="38">
+        <f t="shared" ref="L51:L53" si="43">(L48/H48)-1</f>
         <v>0.3105813193990854</v>
       </c>
-      <c r="M51" s="42">
-        <f t="shared" si="12"/>
+      <c r="M51" s="38">
+        <f t="shared" si="27"/>
         <v>0.2164767747589833</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" s="41" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="41" t="s">
+      <c r="N51" s="38">
+        <f t="shared" ref="N51:N53" si="44">(N48/J48)-1</f>
+        <v>0.21455938697318011</v>
+      </c>
+      <c r="O51" s="38">
+        <f t="shared" ref="O51:O53" si="45">(O48/K48)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="P51" s="38">
+        <f t="shared" ref="P51:P53" si="46">(P48/L48)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q51" s="38">
+        <f t="shared" ref="Q51" si="47">(Q48/M48)-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="37" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H52" s="42">
-        <f t="shared" si="20"/>
+      <c r="D52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" s="38">
+        <f t="shared" si="39"/>
         <v>0.52520161290322598</v>
       </c>
-      <c r="I52" s="42">
-        <f t="shared" si="21"/>
+      <c r="I52" s="38">
+        <f t="shared" si="40"/>
         <v>0.68172690763052213</v>
       </c>
-      <c r="J52" s="42">
-        <f t="shared" si="22"/>
+      <c r="J52" s="38">
+        <f t="shared" si="41"/>
         <v>0.57661647475642153</v>
       </c>
-      <c r="K52" s="42">
-        <f t="shared" si="23"/>
+      <c r="K52" s="38">
+        <f t="shared" si="42"/>
         <v>0.31350114416475972</v>
       </c>
-      <c r="L52" s="42">
-        <f t="shared" si="24"/>
+      <c r="L52" s="38">
+        <f t="shared" si="43"/>
         <v>0.17845340383344355</v>
       </c>
-      <c r="M52" s="42">
-        <f t="shared" si="12"/>
+      <c r="M52" s="38">
+        <f t="shared" si="27"/>
         <v>8.0597014925373189E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" s="41" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="41" t="s">
+      <c r="N52" s="38">
+        <f t="shared" si="27"/>
+        <v>5.5056179775280878E-2</v>
+      </c>
+      <c r="O52" s="38">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="P52" s="38">
+        <f t="shared" si="46"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="37" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H53" s="42">
-        <f t="shared" si="20"/>
+      <c r="D53" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="38">
+        <f t="shared" si="39"/>
         <v>0.30387205387205385</v>
       </c>
-      <c r="I53" s="42">
-        <f t="shared" si="21"/>
+      <c r="I53" s="38">
+        <f t="shared" si="40"/>
         <v>0.47510548523206753</v>
       </c>
-      <c r="J53" s="42">
-        <f t="shared" si="22"/>
+      <c r="J53" s="38">
+        <f t="shared" si="41"/>
         <v>0.48494453248811409</v>
       </c>
-      <c r="K53" s="42">
-        <f t="shared" si="23"/>
+      <c r="K53" s="38">
+        <f t="shared" si="42"/>
         <v>0.51906158357771237</v>
       </c>
-      <c r="L53" s="42">
-        <f t="shared" si="24"/>
+      <c r="L53" s="38">
+        <f t="shared" si="43"/>
         <v>0.43963847643641052</v>
       </c>
-      <c r="M53" s="42">
-        <f t="shared" si="12"/>
+      <c r="M53" s="38">
+        <f t="shared" si="27"/>
         <v>0.34668192219679628</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="M54" s="6"/>
-    </row>
-    <row r="55" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="N53" s="38">
+        <f t="shared" si="27"/>
+        <v>0.36606189967982927</v>
+      </c>
+      <c r="O53" s="38">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="P53" s="38">
+        <f t="shared" si="46"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
@@ -2956,266 +3267,318 @@
       <c r="M55" s="1">
         <v>4.53</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" s="40" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="40" t="s">
+      <c r="N55" s="1">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="40">
+      <c r="D56" s="1">
         <v>4.62</v>
       </c>
-      <c r="E56" s="40">
+      <c r="E56" s="1">
         <v>5.21</v>
       </c>
-      <c r="F56" s="40">
+      <c r="F56" s="1">
         <v>5.27</v>
       </c>
-      <c r="G56" s="40">
+      <c r="G56" s="1">
         <v>5.51</v>
       </c>
-      <c r="H56" s="40">
+      <c r="H56" s="1">
         <v>4.7699999999999996</v>
       </c>
-      <c r="I56" s="40">
+      <c r="I56" s="1">
         <v>4.9400000000000004</v>
       </c>
-      <c r="J56" s="40">
+      <c r="J56" s="1">
         <v>5.88</v>
       </c>
-      <c r="K56" s="40">
+      <c r="K56" s="1">
         <v>7.04</v>
       </c>
-      <c r="L56" s="40">
+      <c r="L56" s="1">
         <v>6.27</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M56" s="8">
         <v>7.87</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" s="40" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="40" t="s">
+      <c r="N56" s="1">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="40">
+      <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="40">
+      <c r="E57" s="1">
         <v>1.06</v>
       </c>
-      <c r="F57" s="40">
+      <c r="F57" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G57" s="40">
+      <c r="G57" s="1">
         <v>1.34</v>
       </c>
-      <c r="H57" s="40">
+      <c r="H57" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I57" s="40">
+      <c r="I57" s="1">
         <v>1.24</v>
       </c>
-      <c r="J57" s="40">
+      <c r="J57" s="1">
         <v>1.32</v>
       </c>
-      <c r="K57" s="40">
+      <c r="K57" s="1">
         <v>1.67</v>
       </c>
-      <c r="L57" s="40">
+      <c r="L57" s="1">
         <v>1.34</v>
       </c>
-      <c r="M57" s="9">
+      <c r="M57" s="8">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" s="41" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="41" t="s">
+      <c r="N57" s="1">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="37" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H58" s="42">
-        <f t="shared" ref="H58:H60" si="25">(H55/D55)-1</f>
+      <c r="D58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="38">
+        <f t="shared" ref="H58:H60" si="48">(H55/D55)-1</f>
         <v>8.0882352941176405E-2</v>
       </c>
-      <c r="I58" s="42">
-        <f t="shared" ref="I58:I60" si="26">(I55/E55)-1</f>
+      <c r="I58" s="38">
+        <f t="shared" ref="I58:I60" si="49">(I55/E55)-1</f>
         <v>1.650165016501659E-2</v>
       </c>
-      <c r="J58" s="42">
-        <f t="shared" ref="J58:J60" si="27">(J55/F55)-1</f>
+      <c r="J58" s="38">
+        <f t="shared" ref="J58:J60" si="50">(J55/F55)-1</f>
         <v>0.14012738853503182</v>
       </c>
-      <c r="K58" s="42">
-        <f t="shared" ref="K58:K60" si="28">(K55/G55)-1</f>
+      <c r="K58" s="38">
+        <f t="shared" ref="K58:K60" si="51">(K55/G55)-1</f>
         <v>0.23099415204678375</v>
       </c>
-      <c r="L58" s="42">
-        <f t="shared" ref="L58:L60" si="29">(L55/H55)-1</f>
+      <c r="L58" s="38">
+        <f t="shared" ref="L58:L60" si="52">(L55/H55)-1</f>
         <v>0.23469387755102034</v>
       </c>
-      <c r="M58" s="42">
-        <f t="shared" si="12"/>
+      <c r="M58" s="38">
+        <f t="shared" si="27"/>
         <v>0.47077922077922074</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" s="41" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="41" t="s">
+      <c r="N58" s="38">
+        <f t="shared" ref="N58:N60" si="53">(N55/J55)-1</f>
+        <v>0.26536312849162025</v>
+      </c>
+      <c r="O58" s="38">
+        <f t="shared" ref="O58:O60" si="54">(O55/K55)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="P58" s="38">
+        <f t="shared" ref="P58:P60" si="55">(P55/L55)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q58" s="38">
+        <f t="shared" ref="Q58" si="56">(Q55/M55)-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="37" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H59" s="42">
-        <f t="shared" si="25"/>
+      <c r="D59" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="38">
+        <f t="shared" si="48"/>
         <v>3.2467532467532312E-2</v>
       </c>
-      <c r="I59" s="42">
-        <f t="shared" si="26"/>
+      <c r="I59" s="38">
+        <f t="shared" si="49"/>
         <v>-5.1823416506717734E-2</v>
       </c>
-      <c r="J59" s="42">
+      <c r="J59" s="38">
+        <f t="shared" si="50"/>
+        <v>0.11574952561669827</v>
+      </c>
+      <c r="K59" s="38">
+        <f t="shared" si="51"/>
+        <v>0.27767695099818512</v>
+      </c>
+      <c r="L59" s="38">
+        <f t="shared" si="52"/>
+        <v>0.31446540880503138</v>
+      </c>
+      <c r="M59" s="38">
         <f t="shared" si="27"/>
-        <v>0.11574952561669827</v>
-      </c>
-      <c r="K59" s="42">
-        <f t="shared" si="28"/>
-        <v>0.27767695099818512</v>
-      </c>
-      <c r="L59" s="42">
-        <f t="shared" si="29"/>
-        <v>0.31446540880503138</v>
-      </c>
-      <c r="M59" s="42">
-        <f t="shared" si="12"/>
         <v>0.59311740890688247</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" s="41" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="41" t="s">
+      <c r="N59" s="38">
+        <f t="shared" si="53"/>
+        <v>0.53741496598639449</v>
+      </c>
+      <c r="O59" s="38">
+        <f t="shared" si="54"/>
+        <v>-1</v>
+      </c>
+      <c r="P59" s="38">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="37" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H60" s="42">
-        <f t="shared" si="25"/>
+      <c r="D60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="38">
+        <f t="shared" si="48"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="I60" s="42">
-        <f t="shared" si="26"/>
+      <c r="I60" s="38">
+        <f t="shared" si="49"/>
         <v>0.16981132075471694</v>
       </c>
-      <c r="J60" s="42">
-        <f t="shared" si="27"/>
+      <c r="J60" s="38">
+        <f t="shared" si="50"/>
         <v>0.15789473684210531</v>
       </c>
-      <c r="K60" s="42">
-        <f t="shared" si="28"/>
+      <c r="K60" s="38">
+        <f t="shared" si="51"/>
         <v>0.24626865671641784</v>
       </c>
-      <c r="L60" s="42">
-        <f t="shared" si="29"/>
+      <c r="L60" s="38">
+        <f t="shared" si="52"/>
         <v>0.21818181818181825</v>
       </c>
-      <c r="M60" s="42">
-        <f t="shared" si="12"/>
+      <c r="M60" s="38">
+        <f>(M57/I57)-1</f>
         <v>0.39516129032258074</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="31" t="s">
+      <c r="N60" s="38">
+        <f t="shared" si="53"/>
+        <v>0.39393939393939403</v>
+      </c>
+      <c r="O60" s="38">
+        <f t="shared" si="54"/>
+        <v>-1</v>
+      </c>
+      <c r="P60" s="38">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B63" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32">
+      <c r="C63" s="30"/>
+      <c r="D63" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E63" s="32">
+      <c r="E63" s="31">
         <v>-54.1</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="31">
         <v>-7.7</v>
       </c>
-      <c r="G63" s="32">
+      <c r="G63" s="31">
         <v>-17.399999999999999</v>
       </c>
-      <c r="H63" s="32">
+      <c r="H63" s="31">
         <v>32.1</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="7">
         <v>28</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J63" s="7">
         <v>71.599999999999994</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="7">
         <v>90</v>
       </c>
-      <c r="L63" s="8">
+      <c r="L63" s="7">
         <v>127.6</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M63" s="7">
         <v>111</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B64" s="28" t="s">
+      <c r="N63" s="7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B64" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="29">
+      <c r="C64" s="27"/>
+      <c r="D64" s="28">
         <v>0.4</v>
       </c>
-      <c r="E64" s="29">
+      <c r="E64" s="28">
         <v>0.8</v>
       </c>
-      <c r="F64" s="29">
+      <c r="F64" s="28">
         <v>3.9</v>
       </c>
-      <c r="G64" s="29">
+      <c r="G64" s="28">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H64" s="29">
+      <c r="H64" s="28">
         <v>2.9</v>
       </c>
-      <c r="I64" s="29">
+      <c r="I64" s="28">
         <v>1</v>
       </c>
       <c r="J64" s="1">
         <v>1.3</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K64" s="8">
         <v>0.8</v>
       </c>
       <c r="L64" s="1">
@@ -3224,582 +3587,592 @@
       <c r="M64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="31" t="s">
+      <c r="N64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="8">
-        <f t="shared" ref="D65:K65" si="30">D63-D64</f>
+      <c r="D65" s="7">
+        <f t="shared" ref="D65:K65" si="57">D63-D64</f>
         <v>3.6999999999999997</v>
       </c>
-      <c r="E65" s="8">
-        <f t="shared" si="30"/>
+      <c r="E65" s="7">
+        <f t="shared" si="57"/>
         <v>-54.9</v>
       </c>
-      <c r="F65" s="8">
-        <f t="shared" si="30"/>
+      <c r="F65" s="7">
+        <f t="shared" si="57"/>
         <v>-11.6</v>
       </c>
-      <c r="G65" s="8">
-        <f t="shared" si="30"/>
+      <c r="G65" s="7">
+        <f t="shared" si="57"/>
         <v>-22</v>
       </c>
-      <c r="H65" s="8">
-        <f t="shared" si="30"/>
+      <c r="H65" s="7">
+        <f t="shared" si="57"/>
         <v>29.200000000000003</v>
       </c>
-      <c r="I65" s="8">
-        <f t="shared" si="30"/>
+      <c r="I65" s="7">
+        <f t="shared" si="57"/>
         <v>27</v>
       </c>
-      <c r="J65" s="8">
-        <f t="shared" si="30"/>
+      <c r="J65" s="7">
+        <f t="shared" si="57"/>
         <v>70.3</v>
       </c>
-      <c r="K65" s="8">
-        <f t="shared" si="30"/>
+      <c r="K65" s="7">
+        <f t="shared" si="57"/>
         <v>89.2</v>
       </c>
-      <c r="L65" s="8">
+      <c r="L65" s="7">
         <f>L63-L64</f>
         <v>126.6</v>
       </c>
-      <c r="M65" s="8">
+      <c r="M65" s="7">
         <f>M63-M64</f>
         <v>111</v>
       </c>
-      <c r="N65" s="8">
+      <c r="N65" s="7">
         <f>N63-N64</f>
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
+      <c r="B66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H67" s="6">
-        <f t="shared" ref="H67:K67" si="31">IF(D65=0,IF(H65=0,0,NA()),(H65-D65)/ABS(D65))</f>
+      <c r="D67" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="5">
+        <f t="shared" ref="H67:K67" si="58">IF(D65=0,IF(H65=0,0,NA()),(H65-D65)/ABS(D65))</f>
         <v>6.891891891891893</v>
       </c>
-      <c r="I67" s="6">
-        <f t="shared" si="31"/>
+      <c r="I67" s="5">
+        <f t="shared" si="58"/>
         <v>1.4918032786885247</v>
       </c>
-      <c r="J67" s="6">
-        <f t="shared" si="31"/>
+      <c r="J67" s="5">
+        <f t="shared" si="58"/>
         <v>7.0603448275862064</v>
       </c>
-      <c r="K67" s="6">
-        <f t="shared" si="31"/>
+      <c r="K67" s="5">
+        <f t="shared" si="58"/>
         <v>5.0545454545454547</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L67" s="5">
         <f>IF(H65=0,IF(L65=0,0,NA()),(L65-H65)/ABS(H65))</f>
         <v>3.3356164383561637</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M67" s="5">
         <f>IF(I65=0,IF(M65=0,0,NA()),(M65-I65)/ABS(I65))</f>
         <v>3.1111111111111112</v>
       </c>
     </row>
     <row r="69" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="28"/>
+      <c r="B69" s="27"/>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="12" t="s">
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
-      <c r="V70" s="13"/>
+      <c r="N70" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="12"/>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="14"/>
+      <c r="B71" s="13"/>
       <c r="M71" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V71" s="15"/>
+      <c r="N71" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="V71" s="14"/>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="14"/>
-      <c r="M72" s="16"/>
-      <c r="V72" s="15"/>
+      <c r="B72" s="13"/>
+      <c r="M72" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="V72" s="14"/>
     </row>
     <row r="73" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-      <c r="V73" s="19"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="18"/>
     </row>
     <row r="74" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
-      <c r="V75" s="13"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="12"/>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B76" s="14"/>
-      <c r="V76" s="15"/>
+      <c r="B76" s="13"/>
+      <c r="V76" s="14"/>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B77" s="14"/>
-      <c r="V77" s="15"/>
+      <c r="B77" s="13"/>
+      <c r="V77" s="14"/>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B78" s="14"/>
-      <c r="V78" s="15"/>
+      <c r="B78" s="13"/>
+      <c r="V78" s="14"/>
     </row>
     <row r="79" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="19"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="18"/>
     </row>
     <row r="80" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B82" s="14"/>
+      <c r="B82" s="13"/>
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B83" s="14"/>
+      <c r="B83" s="13"/>
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B84" s="14"/>
+      <c r="B84" s="13"/>
     </row>
     <row r="85" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17"/>
     </row>
     <row r="86" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B87" s="10"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11"/>
-      <c r="V87" s="13"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="12"/>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B88" s="14"/>
-      <c r="V88" s="15"/>
+      <c r="B88" s="13"/>
+      <c r="V88" s="14"/>
     </row>
     <row r="89" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="14"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="35"/>
-      <c r="O89" s="35"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="35"/>
-      <c r="T89" s="35"/>
-      <c r="U89" s="35"/>
-      <c r="V89" s="36"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="40"/>
     </row>
     <row r="90" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="14"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="35"/>
-      <c r="O90" s="35"/>
-      <c r="P90" s="35"/>
-      <c r="Q90" s="35"/>
-      <c r="R90" s="35"/>
-      <c r="S90" s="35"/>
-      <c r="T90" s="35"/>
-      <c r="U90" s="35"/>
-      <c r="V90" s="36"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="40"/>
     </row>
     <row r="91" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="14"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35"/>
-      <c r="P91" s="35"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="35"/>
-      <c r="T91" s="35"/>
-      <c r="U91" s="35"/>
-      <c r="V91" s="36"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="40"/>
     </row>
     <row r="92" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="14"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="35"/>
-      <c r="N92" s="35"/>
-      <c r="O92" s="35"/>
-      <c r="P92" s="35"/>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="35"/>
-      <c r="V92" s="36"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="39"/>
+      <c r="V92" s="40"/>
     </row>
     <row r="93" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="14"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35"/>
-      <c r="P93" s="35"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="35"/>
-      <c r="V93" s="36"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="39"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39"/>
+      <c r="V93" s="40"/>
     </row>
     <row r="94" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="14"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="35"/>
-      <c r="N94" s="35"/>
-      <c r="O94" s="35"/>
-      <c r="P94" s="35"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="35"/>
-      <c r="T94" s="35"/>
-      <c r="U94" s="35"/>
-      <c r="V94" s="36"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="39"/>
+      <c r="V94" s="40"/>
     </row>
     <row r="95" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="14"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="35"/>
-      <c r="N95" s="35"/>
-      <c r="O95" s="35"/>
-      <c r="P95" s="35"/>
-      <c r="Q95" s="35"/>
-      <c r="R95" s="35"/>
-      <c r="S95" s="35"/>
-      <c r="T95" s="35"/>
-      <c r="U95" s="35"/>
-      <c r="V95" s="36"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39"/>
+      <c r="V95" s="40"/>
     </row>
     <row r="96" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="14"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="35"/>
-      <c r="N96" s="35"/>
-      <c r="O96" s="35"/>
-      <c r="P96" s="35"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="35"/>
-      <c r="S96" s="35"/>
-      <c r="T96" s="35"/>
-      <c r="U96" s="35"/>
-      <c r="V96" s="36"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39"/>
+      <c r="R96" s="39"/>
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="40"/>
     </row>
     <row r="97" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="14"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="35"/>
-      <c r="T97" s="35"/>
-      <c r="U97" s="35"/>
-      <c r="V97" s="36"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="39"/>
+      <c r="M97" s="39"/>
+      <c r="N97" s="39"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39"/>
+      <c r="S97" s="39"/>
+      <c r="T97" s="39"/>
+      <c r="U97" s="39"/>
+      <c r="V97" s="40"/>
     </row>
     <row r="98" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="14"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="35"/>
-      <c r="M98" s="35"/>
-      <c r="N98" s="35"/>
-      <c r="O98" s="35"/>
-      <c r="P98" s="35"/>
-      <c r="Q98" s="35"/>
-      <c r="R98" s="35"/>
-      <c r="S98" s="35"/>
-      <c r="T98" s="35"/>
-      <c r="U98" s="35"/>
-      <c r="V98" s="36"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="39"/>
+      <c r="M98" s="39"/>
+      <c r="N98" s="39"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39"/>
+      <c r="S98" s="39"/>
+      <c r="T98" s="39"/>
+      <c r="U98" s="39"/>
+      <c r="V98" s="40"/>
     </row>
     <row r="99" spans="2:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B99" s="14"/>
-      <c r="G99" s="8"/>
-      <c r="V99" s="15"/>
+      <c r="B99" s="13"/>
+      <c r="G99" s="7"/>
+      <c r="V99" s="14"/>
     </row>
     <row r="100" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B100" s="14"/>
-      <c r="V100" s="15"/>
+      <c r="B100" s="13"/>
+      <c r="V100" s="14"/>
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B101" s="14"/>
-      <c r="V101" s="15"/>
+      <c r="B101" s="13"/>
+      <c r="V101" s="14"/>
     </row>
     <row r="102" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B102" s="14"/>
-      <c r="V102" s="15"/>
+      <c r="B102" s="13"/>
+      <c r="V102" s="14"/>
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B103" s="14"/>
-      <c r="V103" s="15"/>
+      <c r="B103" s="13"/>
+      <c r="V103" s="14"/>
     </row>
     <row r="104" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B104" s="14"/>
-      <c r="V104" s="15"/>
+      <c r="B104" s="13"/>
+      <c r="V104" s="14"/>
     </row>
     <row r="105" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B105" s="14"/>
-      <c r="V105" s="15"/>
+      <c r="B105" s="13"/>
+      <c r="V105" s="14"/>
     </row>
     <row r="106" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B106" s="14"/>
-      <c r="V106" s="15"/>
+      <c r="B106" s="13"/>
+      <c r="V106" s="14"/>
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B107" s="14"/>
-      <c r="V107" s="15"/>
+      <c r="B107" s="13"/>
+      <c r="V107" s="14"/>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B108" s="14"/>
-      <c r="V108" s="15"/>
+      <c r="B108" s="13"/>
+      <c r="V108" s="14"/>
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B109" s="14"/>
-      <c r="V109" s="15"/>
+      <c r="B109" s="13"/>
+      <c r="V109" s="14"/>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B110" s="14"/>
-      <c r="V110" s="15"/>
+      <c r="B110" s="13"/>
+      <c r="V110" s="14"/>
     </row>
     <row r="111" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B111" s="14"/>
-      <c r="V111" s="15"/>
+      <c r="B111" s="13"/>
+      <c r="V111" s="14"/>
     </row>
     <row r="112" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="17"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="18"/>
-      <c r="P112" s="18"/>
-      <c r="Q112" s="18"/>
-      <c r="R112" s="18"/>
-      <c r="S112" s="18"/>
-      <c r="T112" s="18"/>
-      <c r="U112" s="18"/>
-      <c r="V112" s="19"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
+      <c r="R112" s="17"/>
+      <c r="S112" s="17"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="17"/>
+      <c r="V112" s="18"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3823,62 +4196,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E9F137-22FE-4308-BDDF-83014D17E147}">
-  <dimension ref="A1:B7"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4057A448-0FF3-4052-BD1B-DEEE66EAE90C}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>18.440000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4">
-        <v>12.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>116.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>511.9</v>
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
@@ -3886,7 +4255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD6AACC-FEA2-4C5B-AF79-59D39A66A975}">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -3910,95 +4279,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4006,21 +4375,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -4164,31 +4518,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4204,4 +4549,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Growth/RDDT_MODEL.xlsx
+++ b/Growth/RDDT_MODEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Growth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE16C310-8B43-4C16-897B-F89908F80934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437C4DF9-E2AA-4825-BACD-5ED6B93FC2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19530" yWindow="0" windowWidth="18975" windowHeight="20985" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="88">
   <si>
     <t>Price</t>
   </si>
@@ -285,6 +285,24 @@
   </si>
   <si>
     <t>275 to 285</t>
+  </si>
+  <si>
+    <t>666 analyst expectations</t>
+  </si>
+  <si>
+    <t>141% YOY</t>
+  </si>
+  <si>
+    <t>1 buillion in buybacks</t>
+  </si>
+  <si>
+    <t>595 to 605</t>
+  </si>
+  <si>
+    <t>210 to 220</t>
+  </si>
+  <si>
+    <t>Weak guidance</t>
   </si>
 </sst>
 </file>
@@ -296,13 +314,19 @@
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -482,67 +506,73 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -887,141 +917,141 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="41"/>
+    <col min="1" max="1" width="19.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="39">
         <v>216</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="40">
         <v>45987</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="39">
         <v>190</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="39">
         <f xml:space="preserve"> B4 * B5</f>
         <v>41040</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <v>2230</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="39">
         <v>25</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>11.75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="39">
         <f>B6 - B7 + B8</f>
         <v>38835</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="39">
         <v>13.78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="39">
         <v>100.68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="39">
         <v>61.7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="39">
         <v>21.7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="39">
         <v>15.86</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="39">
         <v>20.58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="39">
         <v>511.9</v>
       </c>
     </row>
@@ -1034,9 +1064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N72" sqref="N72"/>
+      <selection pane="topRight" activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1050,7 +1080,7 @@
     <col min="11" max="11" width="14.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="1" customWidth="1"/>
     <col min="13" max="13" width="24.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1156,6 +1186,9 @@
       <c r="N3" s="1">
         <v>585</v>
       </c>
+      <c r="O3" s="1">
+        <v>726</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -1194,6 +1227,9 @@
       <c r="N4" s="1">
         <v>480</v>
       </c>
+      <c r="O4" s="1">
+        <v>583</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1231,6 +1267,9 @@
       </c>
       <c r="N5" s="1">
         <v>105</v>
+      </c>
+      <c r="O5" s="1">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -1289,8 +1328,7 @@
         <v>585</v>
       </c>
       <c r="O7" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="P7" s="33">
         <f t="shared" si="1"/>
@@ -1340,7 +1378,9 @@
       <c r="N8" s="15">
         <v>52.5</v>
       </c>
-      <c r="O8" s="15"/>
+      <c r="O8" s="15">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -1349,7 +1389,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <f t="shared" ref="D9:N9" si="2">D7 - SUM(D8:D8)</f>
+        <f t="shared" ref="D9:O9" si="2">D7 - SUM(D8:D8)</f>
         <v>136.69999999999999</v>
       </c>
       <c r="E9" s="3">
@@ -1391,6 +1431,10 @@
       <c r="N9" s="3">
         <f t="shared" si="2"/>
         <v>532.5</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="2"/>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1432,6 +1476,9 @@
       <c r="N10" s="1">
         <v>196.4</v>
       </c>
+      <c r="O10" s="1">
+        <v>198.9</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
@@ -1472,6 +1519,9 @@
       <c r="N11" s="1">
         <v>128.69999999999999</v>
       </c>
+      <c r="O11" s="1">
+        <v>163.9</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
@@ -1512,6 +1562,9 @@
       <c r="N12" s="1">
         <v>69</v>
       </c>
+      <c r="O12" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -1564,7 +1617,7 @@
       </c>
       <c r="O13" s="3">
         <f t="shared" ref="O13" si="5">O9-SUM(O10:O12)</f>
-        <v>0</v>
+        <v>232.2</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" ref="P13" si="6">P9-SUM(P10:P12)</f>
@@ -1612,6 +1665,9 @@
       <c r="N14" s="1">
         <v>161</v>
       </c>
+      <c r="O14" s="1">
+        <v>254.8</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
@@ -1650,6 +1706,9 @@
       <c r="N15" s="1">
         <v>2</v>
       </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
@@ -1700,8 +1759,7 @@
         <v>159</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="8"/>
@@ -1754,6 +1812,9 @@
       <c r="N17" s="1">
         <v>0.87</v>
       </c>
+      <c r="O17" s="1">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
@@ -1792,6 +1853,9 @@
       <c r="N18" s="1">
         <v>0.8</v>
       </c>
+      <c r="O18" s="1">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
@@ -1839,7 +1903,7 @@
       </c>
       <c r="O20" s="5">
         <f t="shared" ref="O20" si="11">(O7/K7) - 1</f>
-        <v>-1</v>
+        <v>0.69745148468552731</v>
       </c>
       <c r="P20" s="5">
         <f t="shared" ref="P20" si="12">(P7/L7) - 1</f>
@@ -1858,7 +1922,7 @@
         <v>42</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" ref="E21:M21" si="14" xml:space="preserve"> (E7/D7) - 1</f>
+        <f t="shared" ref="E21:L21" si="14" xml:space="preserve"> (E7/D7) - 1</f>
         <v>0.11850946854001254</v>
       </c>
       <c r="F21" s="5">
@@ -1899,11 +1963,11 @@
       </c>
       <c r="O21" s="5">
         <f t="shared" si="15"/>
+        <v>0.24102564102564106</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="15"/>
         <v>-1</v>
-      </c>
-      <c r="P21" s="5" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="5" t="e">
         <f t="shared" si="15"/>
@@ -1958,6 +2022,9 @@
       <c r="N23" s="35">
         <v>0.91</v>
       </c>
+      <c r="O23" s="35">
+        <v>0.91900000000000004</v>
+      </c>
     </row>
     <row r="24" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="35" t="s">
@@ -1996,6 +2063,9 @@
       <c r="N24" s="35">
         <v>0.27800000000000002</v>
       </c>
+      <c r="O24" s="35">
+        <v>0.34699999999999998</v>
+      </c>
     </row>
     <row r="25" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="32" t="s">
@@ -2033,6 +2103,9 @@
       </c>
       <c r="N25" s="32">
         <v>236</v>
+      </c>
+      <c r="O25" s="32">
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2087,6 +2160,9 @@
         <f>SUM(N28:N29)</f>
         <v>116</v>
       </c>
+      <c r="O27" s="1">
+        <v>121.4</v>
+      </c>
     </row>
     <row r="28" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
@@ -2125,6 +2201,9 @@
       <c r="N28" s="1">
         <v>51.6</v>
       </c>
+      <c r="O28" s="1">
+        <v>52.5</v>
+      </c>
     </row>
     <row r="29" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
@@ -2163,6 +2242,9 @@
       <c r="N29" s="1">
         <v>64.400000000000006</v>
       </c>
+      <c r="O29" s="1">
+        <v>68.900000000000006</v>
+      </c>
     </row>
     <row r="30" spans="1:17" s="38" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
@@ -2213,7 +2295,7 @@
       </c>
       <c r="O30" s="38">
         <f t="shared" si="18"/>
-        <v>-1</v>
+        <v>0.19370698131760089</v>
       </c>
       <c r="P30" s="38">
         <f t="shared" si="18"/>
@@ -2270,7 +2352,7 @@
       </c>
       <c r="O31" s="38">
         <f t="shared" si="18"/>
-        <v>-1</v>
+        <v>9.375E-2</v>
       </c>
       <c r="P31" s="38">
         <f t="shared" si="18"/>
@@ -2327,7 +2409,7 @@
       </c>
       <c r="O32" s="38">
         <f t="shared" si="18"/>
-        <v>-1</v>
+        <v>0.28305400372439493</v>
       </c>
       <c r="P32" s="38">
         <f t="shared" si="18"/>
@@ -2390,6 +2472,9 @@
         <f>SUM(N35:N36)</f>
         <v>50.2</v>
       </c>
+      <c r="O34" s="1">
+        <v>50.7</v>
+      </c>
     </row>
     <row r="35" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
@@ -2428,6 +2513,9 @@
       <c r="N35" s="1">
         <v>23.1</v>
       </c>
+      <c r="O35" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
@@ -2466,6 +2554,9 @@
       <c r="N36" s="1">
         <v>27.1</v>
       </c>
+      <c r="O36" s="1">
+        <v>27.7</v>
+      </c>
     </row>
     <row r="37" spans="1:17" s="38" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
@@ -2516,7 +2607,7 @@
       </c>
       <c r="O37" s="38">
         <f t="shared" si="22"/>
-        <v>-1</v>
+        <v>9.9783080260303914E-2</v>
       </c>
       <c r="P37" s="38">
         <f t="shared" si="22"/>
@@ -2560,7 +2651,7 @@
         <v>0.19170984455958551</v>
       </c>
       <c r="M38" s="38">
-        <f t="shared" ref="M38:N60" si="27">(M35/I35)-1</f>
+        <f t="shared" ref="M38:N59" si="27">(M35/I35)-1</f>
         <v>0.12254901960784315</v>
       </c>
       <c r="N38" s="38">
@@ -2569,7 +2660,7 @@
       </c>
       <c r="O38" s="38">
         <f t="shared" si="22"/>
-        <v>-1</v>
+        <v>5.0228310502283158E-2</v>
       </c>
       <c r="P38" s="38">
         <f t="shared" si="22"/>
@@ -2626,7 +2717,7 @@
       </c>
       <c r="O39" s="38">
         <f t="shared" si="22"/>
-        <v>-1</v>
+        <v>0.14462809917355379</v>
       </c>
       <c r="P39" s="38">
         <f t="shared" si="22"/>
@@ -2691,6 +2782,9 @@
         <f>SUM(N42:N43)</f>
         <v>65.8</v>
       </c>
+      <c r="O41" s="1">
+        <v>70.7</v>
+      </c>
     </row>
     <row r="42" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
@@ -2729,6 +2823,9 @@
       <c r="N42" s="1">
         <v>28.5</v>
       </c>
+      <c r="O42" s="1">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="43" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
@@ -2767,6 +2864,9 @@
       <c r="N43" s="1">
         <v>37.299999999999997</v>
       </c>
+      <c r="O43" s="1">
+        <v>41.2</v>
+      </c>
     </row>
     <row r="44" spans="1:17" s="37" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="37" t="s">
@@ -2817,7 +2917,7 @@
       </c>
       <c r="O44" s="38">
         <f t="shared" si="35"/>
-        <v>-1</v>
+        <v>0.27158273381294973</v>
       </c>
       <c r="P44" s="38">
         <f t="shared" si="35"/>
@@ -2869,8 +2969,8 @@
         <v>6.7415730337078594E-2</v>
       </c>
       <c r="O45" s="38">
-        <f t="shared" ref="N45:P45" si="36">(O42/K42)-1</f>
-        <v>-1</v>
+        <f t="shared" ref="O45:P45" si="36">(O42/K42)-1</f>
+        <v>0.13026819923371646</v>
       </c>
       <c r="P45" s="38">
         <f t="shared" si="36"/>
@@ -2922,8 +3022,8 @@
         <v>0.41825095057034201</v>
       </c>
       <c r="O46" s="38">
-        <f t="shared" ref="N46:O46" si="37">(O43/K43)-1</f>
-        <v>-1</v>
+        <f t="shared" ref="O46" si="37">(O43/K43)-1</f>
+        <v>0.39661016949152561</v>
       </c>
       <c r="P46" s="38">
         <f>(P43/L43)-1</f>
@@ -2984,6 +3084,10 @@
         <f>SUM(N49:N50)</f>
         <v>443.8</v>
       </c>
+      <c r="O48" s="8">
+        <f>SUM(O49:O50)</f>
+        <v>471.6</v>
+      </c>
     </row>
     <row r="49" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
@@ -3022,6 +3126,9 @@
       <c r="N49" s="1">
         <v>187.8</v>
       </c>
+      <c r="O49" s="1">
+        <v>193.4</v>
+      </c>
     </row>
     <row r="50" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
@@ -3060,6 +3167,9 @@
       <c r="N50" s="1">
         <v>256</v>
       </c>
+      <c r="O50" s="1">
+        <v>278.2</v>
+      </c>
     </row>
     <row r="51" spans="1:17" s="37" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="37" t="s">
@@ -3105,12 +3215,12 @@
         <v>0.2164767747589833</v>
       </c>
       <c r="N51" s="38">
-        <f t="shared" ref="N51:N53" si="44">(N48/J48)-1</f>
+        <f t="shared" ref="N51" si="44">(N48/J48)-1</f>
         <v>0.21455938697318011</v>
       </c>
       <c r="O51" s="38">
         <f t="shared" ref="O51:O53" si="45">(O48/K48)-1</f>
-        <v>-1</v>
+        <v>0.2430152872957303</v>
       </c>
       <c r="P51" s="38">
         <f t="shared" ref="P51:P53" si="46">(P48/L48)-1</f>
@@ -3167,7 +3277,7 @@
       </c>
       <c r="O52" s="38">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>0.12311265969802565</v>
       </c>
       <c r="P52" s="38">
         <f t="shared" si="46"/>
@@ -3220,7 +3330,7 @@
       </c>
       <c r="O53" s="38">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>0.3426640926640927</v>
       </c>
       <c r="P53" s="38">
         <f t="shared" si="46"/>
@@ -3270,6 +3380,9 @@
       <c r="N55" s="1">
         <v>4.53</v>
       </c>
+      <c r="O55" s="1">
+        <v>5.98</v>
+      </c>
     </row>
     <row r="56" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
@@ -3308,6 +3421,9 @@
       <c r="N56" s="1">
         <v>9.0399999999999991</v>
       </c>
+      <c r="O56" s="1">
+        <v>10.79</v>
+      </c>
     </row>
     <row r="57" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
@@ -3346,6 +3462,9 @@
       <c r="N57" s="1">
         <v>1.84</v>
       </c>
+      <c r="O57" s="1">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="58" spans="1:17" s="37" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="37" t="s">
@@ -3396,7 +3515,7 @@
       </c>
       <c r="O58" s="38">
         <f t="shared" ref="O58:O60" si="54">(O55/K55)-1</f>
-        <v>-1</v>
+        <v>0.42042755344418059</v>
       </c>
       <c r="P58" s="38">
         <f t="shared" ref="P58:P60" si="55">(P55/L55)-1</f>
@@ -3453,7 +3572,7 @@
       </c>
       <c r="O59" s="38">
         <f t="shared" si="54"/>
-        <v>-1</v>
+        <v>0.53267045454545436</v>
       </c>
       <c r="P59" s="38">
         <f t="shared" si="55"/>
@@ -3506,7 +3625,7 @@
       </c>
       <c r="O60" s="38">
         <f t="shared" si="54"/>
-        <v>-1</v>
+        <v>0.38323353293413187</v>
       </c>
       <c r="P60" s="38">
         <f t="shared" si="55"/>
@@ -3709,10 +3828,12 @@
       <c r="M70" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="N70" s="44" t="s">
+      <c r="N70" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="O70" s="10"/>
+      <c r="O70" s="45" t="s">
+        <v>85</v>
+      </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
@@ -3726,15 +3847,24 @@
       <c r="M71" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N71" s="41" t="s">
+      <c r="N71" s="47" t="s">
         <v>81</v>
+      </c>
+      <c r="O71" s="44" t="s">
+        <v>86</v>
       </c>
       <c r="V71" s="14"/>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
-      <c r="M72" s="43" t="s">
+      <c r="M72" s="41" t="s">
         <v>79</v>
+      </c>
+      <c r="N72" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="O72" s="44" t="s">
+        <v>87</v>
       </c>
       <c r="V72" s="14"/>
     </row>
@@ -3751,7 +3881,9 @@
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
+      <c r="N73" s="49">
+        <v>0.94</v>
+      </c>
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
@@ -3761,7 +3893,11 @@
       <c r="U73" s="17"/>
       <c r="V73" s="18"/>
     </row>
-    <row r="74" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N74" s="48" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
         <v>36</v>
@@ -3777,8 +3913,10 @@
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="45" t="s">
+        <v>84</v>
+      </c>
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
@@ -3870,233 +4008,233 @@
     </row>
     <row r="89" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="39"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="39"/>
-      <c r="N89" s="39"/>
-      <c r="O89" s="39"/>
-      <c r="P89" s="39"/>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="39"/>
-      <c r="S89" s="39"/>
-      <c r="T89" s="39"/>
-      <c r="U89" s="39"/>
-      <c r="V89" s="40"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
+      <c r="Q89" s="42"/>
+      <c r="R89" s="42"/>
+      <c r="S89" s="42"/>
+      <c r="T89" s="42"/>
+      <c r="U89" s="42"/>
+      <c r="V89" s="43"/>
     </row>
     <row r="90" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="39"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="39"/>
-      <c r="N90" s="39"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39"/>
-      <c r="V90" s="40"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
+      <c r="Q90" s="42"/>
+      <c r="R90" s="42"/>
+      <c r="S90" s="42"/>
+      <c r="T90" s="42"/>
+      <c r="U90" s="42"/>
+      <c r="V90" s="43"/>
     </row>
     <row r="91" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="39"/>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="40"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
+      <c r="Q91" s="42"/>
+      <c r="R91" s="42"/>
+      <c r="S91" s="42"/>
+      <c r="T91" s="42"/>
+      <c r="U91" s="42"/>
+      <c r="V91" s="43"/>
     </row>
     <row r="92" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="39"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
-      <c r="O92" s="39"/>
-      <c r="P92" s="39"/>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="40"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
+      <c r="Q92" s="42"/>
+      <c r="R92" s="42"/>
+      <c r="S92" s="42"/>
+      <c r="T92" s="42"/>
+      <c r="U92" s="42"/>
+      <c r="V92" s="43"/>
     </row>
     <row r="93" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="39"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="39"/>
-      <c r="N93" s="39"/>
-      <c r="O93" s="39"/>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39"/>
-      <c r="S93" s="39"/>
-      <c r="T93" s="39"/>
-      <c r="U93" s="39"/>
-      <c r="V93" s="40"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
+      <c r="Q93" s="42"/>
+      <c r="R93" s="42"/>
+      <c r="S93" s="42"/>
+      <c r="T93" s="42"/>
+      <c r="U93" s="42"/>
+      <c r="V93" s="43"/>
     </row>
     <row r="94" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="39"/>
-      <c r="K94" s="39"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="39"/>
-      <c r="O94" s="39"/>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39"/>
-      <c r="S94" s="39"/>
-      <c r="T94" s="39"/>
-      <c r="U94" s="39"/>
-      <c r="V94" s="40"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="42"/>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="42"/>
+      <c r="S94" s="42"/>
+      <c r="T94" s="42"/>
+      <c r="U94" s="42"/>
+      <c r="V94" s="43"/>
     </row>
     <row r="95" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="39"/>
-      <c r="K95" s="39"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="39"/>
-      <c r="N95" s="39"/>
-      <c r="O95" s="39"/>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="39"/>
-      <c r="S95" s="39"/>
-      <c r="T95" s="39"/>
-      <c r="U95" s="39"/>
-      <c r="V95" s="40"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="42"/>
+      <c r="N95" s="42"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="42"/>
+      <c r="Q95" s="42"/>
+      <c r="R95" s="42"/>
+      <c r="S95" s="42"/>
+      <c r="T95" s="42"/>
+      <c r="U95" s="42"/>
+      <c r="V95" s="43"/>
     </row>
     <row r="96" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="39"/>
-      <c r="K96" s="39"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
-      <c r="N96" s="39"/>
-      <c r="O96" s="39"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="39"/>
-      <c r="R96" s="39"/>
-      <c r="S96" s="39"/>
-      <c r="T96" s="39"/>
-      <c r="U96" s="39"/>
-      <c r="V96" s="40"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="42"/>
+      <c r="S96" s="42"/>
+      <c r="T96" s="42"/>
+      <c r="U96" s="42"/>
+      <c r="V96" s="43"/>
     </row>
     <row r="97" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="39"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="39"/>
-      <c r="N97" s="39"/>
-      <c r="O97" s="39"/>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39"/>
-      <c r="S97" s="39"/>
-      <c r="T97" s="39"/>
-      <c r="U97" s="39"/>
-      <c r="V97" s="40"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="42"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
+      <c r="Q97" s="42"/>
+      <c r="R97" s="42"/>
+      <c r="S97" s="42"/>
+      <c r="T97" s="42"/>
+      <c r="U97" s="42"/>
+      <c r="V97" s="43"/>
     </row>
     <row r="98" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="39"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="39"/>
-      <c r="N98" s="39"/>
-      <c r="O98" s="39"/>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39"/>
-      <c r="S98" s="39"/>
-      <c r="T98" s="39"/>
-      <c r="U98" s="39"/>
-      <c r="V98" s="40"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="42"/>
+      <c r="P98" s="42"/>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="42"/>
+      <c r="S98" s="42"/>
+      <c r="T98" s="42"/>
+      <c r="U98" s="42"/>
+      <c r="V98" s="43"/>
     </row>
     <row r="99" spans="2:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B99" s="13"/>
@@ -4375,6 +4513,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -4518,22 +4671,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4549,28 +4711,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>